--- a/data/TopOnePercent/Fujian Normal University.xlsx
+++ b/data/TopOnePercent/Fujian Normal University.xlsx
@@ -184,16 +184,16 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1208.0</v>
+        <v>1190.0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>14119.0</v>
+        <v>14392.0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>11.69</v>
+        <v>12.09</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="8">
@@ -202,48 +202,92 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ENGINEERING</t>
+          <t>MATERIALS SCIENCE</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>355.0</v>
+        <v>543.0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>3697.0</v>
+        <v>6789.0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>10.41</v>
+        <v>12.5</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>COMPUTER SCIENCE</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>3933.0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>ENGINEERING</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>362.0</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>3798.0</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
         <v>0.0</v>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>ALL FIELDS</t>
         </is>
       </c>
-      <c r="C9" s="3" t="n">
-        <v>5188.0</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>47795.0</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>9.21</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>59.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Copyright © 2019 Clarivate Analytics</t>
+      <c r="C11" s="3" t="n">
+        <v>5148.0</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>47845.0</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>9.29</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>62.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Copyright © 2020 Clarivate Analytics</t>
         </is>
       </c>
     </row>
